--- a/Table - 15.xlsx
+++ b/Table - 15.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snack\git\coin-change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FFB6F7-8734-4449-B659-F7D5C031FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF478A3-7BCA-424F-AC7A-89C2C7674999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="26355" windowHeight="14670" xr2:uid="{5DB1C90A-5FEA-40C9-9173-1F3D1CFC7CED}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="26355" windowHeight="14670" activeTab="1" xr2:uid="{5DB1C90A-5FEA-40C9-9173-1F3D1CFC7CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -424,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032A2F7E-E567-4A8D-918C-A7AF2FFE4165}">
   <dimension ref="B3:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,4 +750,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760CD3D3-E3FC-4BBE-9048-8C660F6474B7}">
+  <dimension ref="B3:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>11</v>
+      </c>
+      <c r="O7" s="2">
+        <v>12</v>
+      </c>
+      <c r="P7" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>14</v>
+      </c>
+      <c r="R7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>